--- a/company_spreadsheets/design_moment_calculator.xlsx
+++ b/company_spreadsheets/design_moment_calculator.xlsx
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>281000</v>
+        <v>316000</v>
       </c>
     </row>
     <row r="8">
